--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaradhyaVashisht\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A3D2D-085B-41E9-A9DE-089971B4254D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00101C6-A676-44B2-A612-7BE121F95977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="TC_01_AddEmployee" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_02_AddUser" sheetId="3" r:id="rId3"/>
+    <sheet name="TC_03_EditEmployee" sheetId="4" r:id="rId3"/>
+    <sheet name="TC_04_ApplyLeave" sheetId="5" r:id="rId4"/>
+    <sheet name="TC_05_RecruitmentCandidate" sheetId="6" r:id="rId5"/>
+    <sheet name="TC_02_AddUser" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="145">
   <si>
     <t>S. No</t>
   </si>
@@ -305,6 +308,171 @@
   </si>
   <si>
     <t>AddUser_ConfirmPassword</t>
+  </si>
+  <si>
+    <t>EditEmployee</t>
+  </si>
+  <si>
+    <t>TC_03_01</t>
+  </si>
+  <si>
+    <t>TC_03-02</t>
+  </si>
+  <si>
+    <t>TC_03_03</t>
+  </si>
+  <si>
+    <t>TC_03_04</t>
+  </si>
+  <si>
+    <t>TC_03_05</t>
+  </si>
+  <si>
+    <t>This test case will be Editing Employee into the Orange HRM</t>
+  </si>
+  <si>
+    <t>TC_04_01</t>
+  </si>
+  <si>
+    <t>TC_04_02</t>
+  </si>
+  <si>
+    <t>TC_04_03</t>
+  </si>
+  <si>
+    <t>TC_04_04</t>
+  </si>
+  <si>
+    <t>TC_04_05</t>
+  </si>
+  <si>
+    <t>ApplyLeave</t>
+  </si>
+  <si>
+    <t>This test case will Apply leave in the Orange HRM</t>
+  </si>
+  <si>
+    <t>TC_05_01</t>
+  </si>
+  <si>
+    <t>TC_05_02</t>
+  </si>
+  <si>
+    <t>TC_05_03</t>
+  </si>
+  <si>
+    <t>TC_05_04</t>
+  </si>
+  <si>
+    <t>TC_05_05</t>
+  </si>
+  <si>
+    <t>RecruitmentCandidate</t>
+  </si>
+  <si>
+    <t>This test case will be Recruiting Candidate in the Orange HRM</t>
+  </si>
+  <si>
+    <t>TC_06_01</t>
+  </si>
+  <si>
+    <t>TC_06_02</t>
+  </si>
+  <si>
+    <t>TC_06_03</t>
+  </si>
+  <si>
+    <t>TC_06_04</t>
+  </si>
+  <si>
+    <t>TC_06_05</t>
+  </si>
+  <si>
+    <t>TC_07_01</t>
+  </si>
+  <si>
+    <t>TC_07_02</t>
+  </si>
+  <si>
+    <t>TC_07_03</t>
+  </si>
+  <si>
+    <t>TC_07_04</t>
+  </si>
+  <si>
+    <t>TC_07_05</t>
+  </si>
+  <si>
+    <t>TC_08_01</t>
+  </si>
+  <si>
+    <t>TC_08_02</t>
+  </si>
+  <si>
+    <t>TC_08_03</t>
+  </si>
+  <si>
+    <t>TC_08_04</t>
+  </si>
+  <si>
+    <t>PurchaseCOD</t>
+  </si>
+  <si>
+    <t>ReOrder</t>
+  </si>
+  <si>
+    <t>AllOrderTotal</t>
+  </si>
+  <si>
+    <t>This test case will be PurchaseCOD on DemoWebShop</t>
+  </si>
+  <si>
+    <t>This test case will be Reorder on DemoWebShop</t>
+  </si>
+  <si>
+    <t>This test case will be All orders total in DemoWebShop</t>
+  </si>
+  <si>
+    <t>Edit Employee</t>
+  </si>
+  <si>
+    <t>NewLastName</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>EventInformation</t>
+  </si>
+  <si>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>LeaveFromDate</t>
+  </si>
+  <si>
+    <t>LeaveToDate</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>LinkedInURL</t>
+  </si>
+  <si>
+    <t>Vacancy</t>
+  </si>
+  <si>
+    <t>RecruitmentStage</t>
   </si>
 </sst>
 </file>
@@ -693,17 +861,19 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="62.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -743,7 +913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -760,7 +930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,7 +947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -794,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -811,7 +981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -828,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -845,7 +1015,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -862,7 +1032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -879,7 +1049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -896,233 +1066,494 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
       <c r="F14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
       <c r="F15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
       <c r="F16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
       <c r="F18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
       <c r="F19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
       <c r="F20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
       <c r="F21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
       <c r="F23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
       <c r="F24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
       <c r="F25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
       <c r="F26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
       <c r="F27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
       <c r="F28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
       <c r="F29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
       <c r="F30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
       <c r="F31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
       <c r="F32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
       <c r="F33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
       <c r="F34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
       <c r="F35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
       <c r="F36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
       <c r="F37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
       <c r="F38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
       <c r="F39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
       </c>
       <c r="F40" t="s">
         <v>54</v>
@@ -1140,23 +1571,23 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1229,7 +1660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1261,7 +1692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1371,26 +1802,472 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC94E3-296F-4311-83A2-9D6323C2EB33}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B1B19367-98D1-4B82-8356-A257C784E807}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B9FCF534-0EEF-43DA-8FFE-A72C5C3C3EFF}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B6762509-80AD-4CF1-9F99-84AC5E35F57C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{28DE3539-5410-4447-918C-6DD46CC59ABE}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{E5813CFD-8EB7-4723-B9D3-B32316710701}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C415BAA9-6369-4BAB-B424-B445438157B3}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7788139-C4A5-4FCD-8C7F-3FF6153B2B78}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3E13B705-B6A7-41A9-87E5-AA5D3FDFBA6E}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0A7EA8E3-7EFB-46C4-9871-473A77BA051C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{2AF26926-5989-4147-A1F6-28D262924D65}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{1E2DEF20-B73B-4528-A2E8-BB36839585C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF36DA3-9270-481D-9396-013591031C0A}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1B1A084F-7AA5-4755-AE91-33EB517F2ADC}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CFE7350B-178E-4DA4-875A-E0C0271D03FC}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8D9770EB-54B7-4AFD-8862-394630BD7DD7}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{719AFC6C-6EAC-43F2-9DB8-BD0738976F89}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{63176F78-05F6-4B70-AE9D-B7C1B72D41E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6A3B6-0769-41C7-9100-21709CD78AE4}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +2296,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +2319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +2342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +2365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +2388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00101C6-A676-44B2-A612-7BE121F95977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75133031-7C1C-45A4-BF77-4E4E8ED2F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_01_AddEmployee" sheetId="2" r:id="rId2"/>
-    <sheet name="TC_03_EditEmployee" sheetId="4" r:id="rId3"/>
-    <sheet name="TC_04_ApplyLeave" sheetId="5" r:id="rId4"/>
-    <sheet name="TC_05_RecruitmentCandidate" sheetId="6" r:id="rId5"/>
-    <sheet name="TC_02_AddUser" sheetId="3" r:id="rId6"/>
+    <sheet name="AddEmployee" sheetId="2" r:id="rId2"/>
+    <sheet name="AddUser" sheetId="3" r:id="rId3"/>
+    <sheet name="EditEmployee" sheetId="4" r:id="rId4"/>
+    <sheet name="ApplyLeave" sheetId="5" r:id="rId5"/>
+    <sheet name="RecruitmentCandidate" sheetId="6" r:id="rId6"/>
+    <sheet name="PurchaseCOD" sheetId="7" r:id="rId7"/>
+    <sheet name="ReOrderCOD" sheetId="8" r:id="rId8"/>
+    <sheet name="AllOrdersTotal" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="200">
   <si>
     <t>S. No</t>
   </si>
@@ -439,15 +442,9 @@
     <t>NewLastName</t>
   </si>
   <si>
-    <t>MaritalStatus</t>
-  </si>
-  <si>
     <t>Nationality</t>
   </si>
   <si>
-    <t>EventInformation</t>
-  </si>
-  <si>
     <t>LeaveType</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>LinkedInURL</t>
   </si>
   <si>
@@ -473,6 +467,180 @@
   </si>
   <si>
     <t>RecruitmentStage</t>
+  </si>
+  <si>
+    <t>TC_03_02</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Contract Renewal</t>
+  </si>
+  <si>
+    <t>Cost Center Move</t>
+  </si>
+  <si>
+    <t>EEO Job Category Changed</t>
+  </si>
+  <si>
+    <t>First Time Addition</t>
+  </si>
+  <si>
+    <t>FLSA Exemption Changed</t>
+  </si>
+  <si>
+    <t>Living Allowance</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>EPF</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Promoted</t>
+  </si>
+  <si>
+    <t>Initial Contract</t>
+  </si>
+  <si>
+    <t>Joined</t>
+  </si>
+  <si>
+    <t>EEO Pay Band Changed</t>
+  </si>
+  <si>
+    <t>Job_EventInformation</t>
+  </si>
+  <si>
+    <t>Salary_EventInformation</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>9632589630</t>
+  </si>
+  <si>
+    <t>6589145231</t>
+  </si>
+  <si>
+    <t>8521474560</t>
+  </si>
+  <si>
+    <t>7569842103</t>
+  </si>
+  <si>
+    <t>8596485213</t>
+  </si>
+  <si>
+    <t>Adduser_password</t>
+  </si>
+  <si>
+    <t>FMLA - US</t>
+  </si>
+  <si>
+    <t>Maternity Leave - US</t>
+  </si>
+  <si>
+    <t>Sick Leave - US</t>
+  </si>
+  <si>
+    <t>Work From Home - US</t>
+  </si>
+  <si>
+    <t>11-August-2022</t>
+  </si>
+  <si>
+    <t>11-June-2022</t>
+  </si>
+  <si>
+    <t>11-July-2022</t>
+  </si>
+  <si>
+    <t>15-June-2022</t>
+  </si>
+  <si>
+    <t>15-July-2022</t>
+  </si>
+  <si>
+    <t>15-September-2022</t>
+  </si>
+  <si>
+    <t>1-October-2022</t>
+  </si>
+  <si>
+    <t>11-October-2022</t>
+  </si>
+  <si>
+    <t>1-July-2022</t>
+  </si>
+  <si>
+    <t>Credit Analyst</t>
+  </si>
+  <si>
+    <t>Software QA Engineer</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>Shortlisted</t>
+  </si>
+  <si>
+    <t>StageChanges</t>
+  </si>
+  <si>
+    <t>Hired</t>
+  </si>
+  <si>
+    <t>aarosagarch@gmail.com</t>
+  </si>
+  <si>
+    <t>LoginEmail</t>
+  </si>
+  <si>
+    <t>ReOrderCOD</t>
+  </si>
+  <si>
+    <t>AllOrdersTotal</t>
+  </si>
+  <si>
+    <t>TC_08_05</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -537,12 +705,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -858,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BCE2C-B803-46ED-B963-DE246F732555}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1559,6 +1728,23 @@
         <v>54</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,11 +1757,12 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -1802,457 +1989,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC94E3-296F-4311-83A2-9D6323C2EB33}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B1B19367-98D1-4B82-8356-A257C784E807}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B9FCF534-0EEF-43DA-8FFE-A72C5C3C3EFF}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B6762509-80AD-4CF1-9F99-84AC5E35F57C}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{28DE3539-5410-4447-918C-6DD46CC59ABE}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{E5813CFD-8EB7-4723-B9D3-B32316710701}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C415BAA9-6369-4BAB-B424-B445438157B3}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7788139-C4A5-4FCD-8C7F-3FF6153B2B78}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{3E13B705-B6A7-41A9-87E5-AA5D3FDFBA6E}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{0A7EA8E3-7EFB-46C4-9871-473A77BA051C}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{2AF26926-5989-4147-A1F6-28D262924D65}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{1E2DEF20-B73B-4528-A2E8-BB36839585C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF36DA3-9270-481D-9396-013591031C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6A3B6-0769-41C7-9100-21709CD78AE4}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1B1A084F-7AA5-4755-AE91-33EB517F2ADC}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CFE7350B-178E-4DA4-875A-E0C0271D03FC}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{8D9770EB-54B7-4AFD-8862-394630BD7DD7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{719AFC6C-6EAC-43F2-9DB8-BD0738976F89}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{63176F78-05F6-4B70-AE9D-B7C1B72D41E3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6A3B6-0769-41C7-9100-21709CD78AE4}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,11 +2004,13 @@
     <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" customWidth="1"/>
     <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,8 +2038,14 @@
       <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2318,8 +2067,11 @@
       <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2341,8 +2093,11 @@
       <c r="I3" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2364,8 +2119,11 @@
       <c r="I4" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2387,8 +2145,11 @@
       <c r="I5" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2408,6 +2169,9 @@
         <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2428,6 +2192,1111 @@
     <hyperlink ref="I4" r:id="rId13" xr:uid="{7A88AAA5-59F4-409D-9B87-BA2E23E1DB96}"/>
     <hyperlink ref="I5" r:id="rId14" xr:uid="{B4EE66FD-9B41-4451-9AD1-6CFB4EF1B70E}"/>
     <hyperlink ref="I6" r:id="rId15" xr:uid="{9A236127-DDFA-4E2E-B98B-C45C011D8467}"/>
+    <hyperlink ref="K2" r:id="rId16" xr:uid="{9435A09B-03C4-456F-AB02-BD1DF82A3314}"/>
+    <hyperlink ref="K3" r:id="rId17" xr:uid="{068D1552-2FDF-4461-828C-9E7C26A732F1}"/>
+    <hyperlink ref="K4" r:id="rId18" xr:uid="{CDD9A8EA-2A48-4B13-BA61-0E14F7ADDC7D}"/>
+    <hyperlink ref="K5" r:id="rId19" xr:uid="{E4E615BB-764A-4931-9E86-BEE62D6ADD01}"/>
+    <hyperlink ref="K6" r:id="rId20" xr:uid="{0556187D-DF27-4001-9D52-7B4E3050E6E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC94E3-296F-4311-83A2-9D6323C2EB33}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B1B19367-98D1-4B82-8356-A257C784E807}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B9FCF534-0EEF-43DA-8FFE-A72C5C3C3EFF}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{B6762509-80AD-4CF1-9F99-84AC5E35F57C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{28DE3539-5410-4447-918C-6DD46CC59ABE}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{E5813CFD-8EB7-4723-B9D3-B32316710701}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C415BAA9-6369-4BAB-B424-B445438157B3}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D7788139-C4A5-4FCD-8C7F-3FF6153B2B78}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3E13B705-B6A7-41A9-87E5-AA5D3FDFBA6E}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{0A7EA8E3-7EFB-46C4-9871-473A77BA051C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{2AF26926-5989-4147-A1F6-28D262924D65}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{1E2DEF20-B73B-4528-A2E8-BB36839585C6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF36DA3-9270-481D-9396-013591031C0A}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{1B1A084F-7AA5-4755-AE91-33EB517F2ADC}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CFE7350B-178E-4DA4-875A-E0C0271D03FC}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8D9770EB-54B7-4AFD-8862-394630BD7DD7}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{719AFC6C-6EAC-43F2-9DB8-BD0738976F89}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{63176F78-05F6-4B70-AE9D-B7C1B72D41E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1433F4D-AA94-4C23-B8F4-C641A3F219D9}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5E9C8625-D106-45AE-A2F9-5E51D61CBFE0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{38558A90-7C00-4866-976E-FA2E288CA368}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{4B9CF97E-D29B-4384-9EAE-4F78571429B9}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{A3236F57-96B7-4DD8-9320-11644DBC8202}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{131E80A2-E254-4E79-8641-D5C01CA5B12F}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{613FBB1A-D0E5-4250-91B2-D8877C5F6264}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{D7E951F1-1C70-4772-BC07-8583BC8EB499}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{718D9A1F-4054-48EA-A9CE-61C4537D8E96}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{81E76611-A800-4E21-91CC-AF4CF9543FA2}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{C444CDD7-BB16-419E-B5C5-21358CC413F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32D993-D624-4A5F-A345-C2B190736A2C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DE886733-9328-4598-8D26-E2E719BAA614}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3019D316-FB37-43DB-87A7-33E18FB5CD82}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{90CF8BD9-4299-4D2C-A6E1-C02B2C4151A3}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{32AFD8AC-0D8A-41C5-AD09-AD802DFB8225}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{AA10C6E8-1316-4338-9BD2-2A46560FE2B2}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{501950A3-5084-4882-858B-E6BAFABADEDB}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{FE589201-A794-4794-900A-88BEB315E8B2}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{743F8B8D-ABBD-4EA1-966E-0C897664994E}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{765635CE-6869-487C-9211-657684933A1F}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{91941414-F121-4A40-8824-143E9AA10739}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4CA563-4911-400A-8354-9E2AF7E9F3EA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{120A6782-FC14-4FBD-848C-F97853D6EA15}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B311BEF8-42DB-45E5-9A9D-1BCB25F13E19}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E4CE0763-8A28-4416-9741-714BE98D0BB9}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{D1F49D72-4D38-4A68-BBDF-8B94B69A7A54}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{6B509648-60AA-4075-B57D-27717A8C17B5}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{245F1335-9C56-468E-A1AE-05869E1E5628}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{7B08F35D-70AF-484B-ABA0-080EAE0B48CC}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{A586EE84-37D0-43FD-8B5B-736945551CC0}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{A0358B6D-757E-4C6A-9987-E5335559A817}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{28272A4A-C9BF-4BFB-BFEF-F1A7FCCCD979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75133031-7C1C-45A4-BF77-4E4E8ED2F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EDF98-B665-45B5-856F-8E21A24BE300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" activeTab="1" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="206">
   <si>
     <t>S. No</t>
   </si>
@@ -562,9 +562,6 @@
     <t>8596485213</t>
   </si>
   <si>
-    <t>Adduser_password</t>
-  </si>
-  <si>
     <t>FMLA - US</t>
   </si>
   <si>
@@ -641,6 +638,27 @@
   </si>
   <si>
     <t>40</t>
+  </si>
+  <si>
+    <t>Winfred</t>
+  </si>
+  <si>
+    <t>Schimmel</t>
+  </si>
+  <si>
+    <t>05-06-1980</t>
+  </si>
+  <si>
+    <t>09-08-1995</t>
+  </si>
+  <si>
+    <t>12-10-1970</t>
+  </si>
+  <si>
+    <t>30-12-1999</t>
+  </si>
+  <si>
+    <t>31-05-2002</t>
   </si>
 </sst>
 </file>
@@ -710,8 +728,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1029,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113BCE2C-B803-46ED-B963-DE246F732555}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -1730,10 +1748,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
         <v>127</v>
@@ -1756,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C14E7B3-7A94-4166-8B22-BEFE5B744D32}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1834,8 +1852,8 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="4">
-        <v>29377</v>
+      <c r="I2" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -1866,8 +1884,8 @@
       <c r="H3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="4">
-        <v>34920</v>
+      <c r="I3" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="J3" t="s">
         <v>79</v>
@@ -1895,11 +1913,17 @@
       <c r="E4" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" t="s">
+        <v>200</v>
+      </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="4">
-        <v>25853</v>
+      <c r="I4" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1930,8 +1954,8 @@
       <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="4">
-        <v>36524</v>
+      <c r="I5" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -1962,8 +1986,8 @@
       <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="4">
-        <v>37407</v>
+      <c r="I6" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
@@ -1990,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6A3B6-0769-41C7-9100-21709CD78AE4}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,11 +2030,9 @@
     <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.90625" customWidth="1"/>
     <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,14 +2060,8 @@
       <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2067,11 +2083,8 @@
       <c r="I2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2093,11 +2106,8 @@
       <c r="I3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2119,11 +2129,8 @@
       <c r="I4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2145,11 +2152,8 @@
       <c r="I5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2169,9 +2173,6 @@
         <v>72</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2192,11 +2193,6 @@
     <hyperlink ref="I4" r:id="rId13" xr:uid="{7A88AAA5-59F4-409D-9B87-BA2E23E1DB96}"/>
     <hyperlink ref="I5" r:id="rId14" xr:uid="{B4EE66FD-9B41-4451-9AD1-6CFB4EF1B70E}"/>
     <hyperlink ref="I6" r:id="rId15" xr:uid="{9A236127-DDFA-4E2E-B98B-C45C011D8467}"/>
-    <hyperlink ref="K2" r:id="rId16" xr:uid="{9435A09B-03C4-456F-AB02-BD1DF82A3314}"/>
-    <hyperlink ref="K3" r:id="rId17" xr:uid="{068D1552-2FDF-4461-828C-9E7C26A732F1}"/>
-    <hyperlink ref="K4" r:id="rId18" xr:uid="{CDD9A8EA-2A48-4B13-BA61-0E14F7ADDC7D}"/>
-    <hyperlink ref="K5" r:id="rId19" xr:uid="{E4E615BB-764A-4931-9E86-BEE62D6ADD01}"/>
-    <hyperlink ref="K6" r:id="rId20" xr:uid="{0556187D-DF27-4001-9D52-7B4E3050E6E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,10 +2208,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" customWidth="1"/>
     <col min="8" max="8" width="10.90625" customWidth="1"/>
@@ -2266,7 +2262,7 @@
       <c r="M1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2540,13 +2536,13 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2566,13 +2562,13 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2592,13 +2588,13 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -2618,13 +2614,13 @@
         <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2644,13 +2640,13 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2681,7 @@
     <col min="7" max="7" width="10.453125" customWidth="1"/>
     <col min="8" max="8" width="12.6328125" customWidth="1"/>
     <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2721,7 +2717,7 @@
         <v>141</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2741,13 +2737,13 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" t="s">
-        <v>191</v>
-      </c>
       <c r="K2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2767,13 +2763,13 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2793,13 +2789,13 @@
         <v>72</v>
       </c>
       <c r="I4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2819,13 +2815,13 @@
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2845,13 +2841,13 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2905,8 +2901,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="14.90625" customWidth="1"/>
   </cols>
@@ -2922,7 +2918,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -2939,7 +2935,7 @@
         <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>72</v>
@@ -2956,7 +2952,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
@@ -2973,7 +2969,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
@@ -2990,7 +2986,7 @@
         <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>72</v>
@@ -3007,7 +3003,7 @@
         <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
@@ -3040,9 +3036,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" customWidth="1"/>
   </cols>
@@ -3058,7 +3054,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -3072,10 +3068,10 @@
         <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>72</v>
@@ -3089,10 +3085,10 @@
         <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
@@ -3106,10 +3102,10 @@
         <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
@@ -3123,10 +3119,10 @@
         <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>72</v>
@@ -3140,10 +3136,10 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
@@ -3194,7 +3190,7 @@
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>62</v>
@@ -3208,10 +3204,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>72</v>
@@ -3225,10 +3221,10 @@
         <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>72</v>
@@ -3242,10 +3238,10 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
@@ -3259,10 +3255,10 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>72</v>
@@ -3273,13 +3269,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="210">
   <si>
     <t>S. No</t>
   </si>
@@ -659,12 +659,25 @@
   </si>
   <si>
     <t>31-05-2002</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>McLaughlin</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>1057</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1053,11 +1066,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1"/>
-    <col min="4" max="4" width="62.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.1796875"/>
+    <col min="3" max="3" customWidth="true" width="30.36328125"/>
+    <col min="4" max="4" customWidth="true" width="62.08984375"/>
+    <col min="5" max="5" customWidth="true" width="16.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1780,16 +1793,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -1914,10 +1927,10 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
@@ -1933,6 +1946,9 @@
       </c>
       <c r="L4" t="s">
         <v>85</v>
+      </c>
+      <c r="M4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -2014,7 +2030,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6A3B6-0769-41C7-9100-21709CD78AE4}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
@@ -2022,14 +2038,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="8" max="8" customWidth="true" width="23.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -2151,6 +2167,9 @@
       </c>
       <c r="I5" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2208,18 +2227,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="4.81640625"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="3" max="3" customWidth="true" width="15.6328125"/>
+    <col min="4" max="4" customWidth="true" width="11.81640625"/>
+    <col min="5" max="6" customWidth="true" width="15.1796875"/>
+    <col min="7" max="7" customWidth="true" width="13.36328125"/>
+    <col min="8" max="8" customWidth="true" width="10.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -2484,13 +2503,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.90625"/>
+    <col min="3" max="3" customWidth="true" width="19.0"/>
+    <col min="4" max="4" customWidth="true" width="11.6328125"/>
+    <col min="5" max="5" customWidth="true" width="12.81640625"/>
+    <col min="6" max="6" customWidth="true" width="20.90625"/>
+    <col min="7" max="7" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" customWidth="true" width="18.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2672,17 +2691,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.6328125"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="25.1796875"/>
+    <col min="4" max="4" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" customWidth="true" width="14.54296875"/>
+    <col min="6" max="6" customWidth="true" width="11.1796875"/>
+    <col min="7" max="7" customWidth="true" width="10.453125"/>
+    <col min="8" max="8" customWidth="true" width="12.6328125"/>
+    <col min="9" max="9" customWidth="true" width="22.36328125"/>
+    <col min="10" max="10" customWidth="true" width="16.81640625"/>
+    <col min="11" max="11" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2900,11 +2919,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.90625"/>
+    <col min="2" max="2" customWidth="true" width="9.81640625"/>
+    <col min="3" max="3" customWidth="true" width="17.1796875"/>
+    <col min="4" max="4" customWidth="true" width="22.81640625"/>
+    <col min="5" max="5" customWidth="true" width="14.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3036,11 +3055,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.1796875"/>
+    <col min="2" max="2" customWidth="true" width="12.08984375"/>
+    <col min="3" max="3" customWidth="true" width="22.81640625"/>
+    <col min="4" max="4" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" customWidth="true" width="16.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3172,11 +3191,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.81640625"/>
+    <col min="2" max="2" customWidth="true" width="12.0"/>
+    <col min="3" max="3" customWidth="true" width="16.08984375"/>
+    <col min="4" max="4" customWidth="true" width="23.90625"/>
+    <col min="5" max="5" customWidth="true" width="15.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7EDF98-B665-45B5-856F-8E21A24BE300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F658D4-A4CD-4A28-99CC-1F77D705340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" activeTab="1" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="221">
   <si>
     <t>S. No</t>
   </si>
@@ -640,12 +640,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>Winfred</t>
-  </si>
-  <si>
-    <t>Schimmel</t>
-  </si>
-  <si>
     <t>05-06-1980</t>
   </si>
   <si>
@@ -670,7 +664,46 @@
     <t>0147</t>
   </si>
   <si>
-    <t>1057</t>
+    <t>1079</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>sammie.wintheiser</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>Bradtke</t>
+  </si>
+  <si>
+    <t>Rosendo</t>
+  </si>
+  <si>
+    <t>Senger</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Cremin</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Greenfelder</t>
+  </si>
+  <si>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ravi-c-1b35b1124/</t>
   </si>
 </sst>
 </file>
@@ -1787,13 +1820,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C14E7B3-7A94-4166-8B22-BEFE5B744D32}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="6.36328125"/>
+    <col min="2" max="2" customWidth="true" width="10.26953125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
@@ -1866,7 +1900,7 @@
         <v>73</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -1898,7 +1932,7 @@
         <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
         <v>79</v>
@@ -1927,16 +1961,16 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J4" t="s">
         <v>80</v>
@@ -1948,7 +1982,7 @@
         <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1971,7 +2005,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
         <v>78</v>
@@ -2003,7 +2037,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J6" t="s">
         <v>79</v>
@@ -2048,7 +2082,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" width="25.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2169,10 +2203,10 @@
         <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2187,6 +2221,12 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" t="s">
+        <v>209</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>72</v>
@@ -2221,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC94E3-296F-4311-83A2-9D6323C2EB33}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2457,7 +2497,12 @@
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" t="s">
+        <v>211</v>
+      </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
@@ -2498,7 +2543,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2859,6 +2904,15 @@
       <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" t="s">
+        <v>220</v>
+      </c>
       <c r="I6" t="s">
         <v>186</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaradhyaVashisht\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F658D4-A4CD-4A28-99CC-1F77D705340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359A5C6-CC52-4F2E-848D-C9471FC3501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="226">
   <si>
     <t>S. No</t>
   </si>
@@ -673,30 +673,6 @@
     <t>sammie.wintheiser</t>
   </si>
   <si>
-    <t>0145</t>
-  </si>
-  <si>
-    <t>Bradtke</t>
-  </si>
-  <si>
-    <t>Rosendo</t>
-  </si>
-  <si>
-    <t>Senger</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Cremin</t>
-  </si>
-  <si>
-    <t>Wyatt</t>
-  </si>
-  <si>
-    <t>Greenfelder</t>
-  </si>
-  <si>
     <t>Layla</t>
   </si>
   <si>
@@ -704,6 +680,45 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/ravi-c-1b35b1124/</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>McKenzie</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>Wiza</t>
+  </si>
+  <si>
+    <t>Jayna</t>
+  </si>
+  <si>
+    <t>Cronin</t>
+  </si>
+  <si>
+    <t>Heriberto</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>Angla</t>
+  </si>
+  <si>
+    <t>O'Kon</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
   </si>
 </sst>
 </file>
@@ -1097,16 +1112,16 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.1796875"/>
-    <col min="3" max="3" customWidth="true" width="30.36328125"/>
-    <col min="4" max="4" customWidth="true" width="62.08984375"/>
+    <col min="2" max="2" customWidth="true" width="12.21875"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125"/>
+    <col min="4" max="4" customWidth="true" width="62.109375"/>
     <col min="5" max="5" customWidth="true" width="16.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1214,7 +1229,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1246,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1280,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1605,7 +1620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1688,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1724,7 +1739,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>198</v>
       </c>
@@ -1824,22 +1839,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36328125"/>
-    <col min="2" max="2" customWidth="true" width="10.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.90625"/>
+    <col min="1" max="1" customWidth="true" width="6.33203125"/>
+    <col min="2" max="2" customWidth="true" width="10.21875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.21875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.88671875"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.33203125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.77734375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1928,6 +1943,12 @@
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
@@ -1943,8 +1964,11 @@
       <c r="L3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1985,7 +2009,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2017,7 +2041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2070,19 +2094,19 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="8" max="8" customWidth="true" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.08984375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875"/>
+    <col min="8" max="8" customWidth="true" width="23.88671875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2134,7 +2158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2181,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2262,26 +2286,26 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.81640625"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375"/>
     <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="3" max="3" customWidth="true" width="15.6328125"/>
-    <col min="4" max="4" customWidth="true" width="11.81640625"/>
-    <col min="5" max="6" customWidth="true" width="15.1796875"/>
-    <col min="7" max="7" customWidth="true" width="13.36328125"/>
-    <col min="8" max="8" customWidth="true" width="10.90625"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625"/>
+    <col min="4" max="4" customWidth="true" width="11.77734375"/>
+    <col min="5" max="6" customWidth="true" width="15.21875"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125"/>
+    <col min="8" max="8" customWidth="true" width="10.88671875"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2349,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +2505,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2498,16 +2522,16 @@
         <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
         <v>152</v>
@@ -2546,18 +2570,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.90625"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875"/>
     <col min="3" max="3" customWidth="true" width="19.0"/>
-    <col min="4" max="4" customWidth="true" width="11.6328125"/>
-    <col min="5" max="5" customWidth="true" width="12.81640625"/>
-    <col min="6" max="6" customWidth="true" width="20.90625"/>
-    <col min="7" max="7" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" customWidth="true" width="18.54296875"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625"/>
+    <col min="5" max="5" customWidth="true" width="12.77734375"/>
+    <col min="6" max="6" customWidth="true" width="20.88671875"/>
+    <col min="7" max="7" customWidth="true" width="16.77734375"/>
+    <col min="8" max="8" customWidth="true" width="18.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2607,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2633,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2659,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2687,7 +2711,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2734,22 +2758,22 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.6328125"/>
+    <col min="1" max="1" customWidth="true" width="6.6640625"/>
     <col min="2" max="2" customWidth="true" width="11.0"/>
-    <col min="3" max="3" customWidth="true" width="25.1796875"/>
-    <col min="4" max="4" customWidth="true" width="10.453125"/>
-    <col min="5" max="5" customWidth="true" width="14.54296875"/>
-    <col min="6" max="6" customWidth="true" width="11.1796875"/>
-    <col min="7" max="7" customWidth="true" width="10.453125"/>
-    <col min="8" max="8" customWidth="true" width="12.6328125"/>
-    <col min="9" max="9" customWidth="true" width="22.36328125"/>
-    <col min="10" max="10" customWidth="true" width="16.81640625"/>
+    <col min="3" max="3" customWidth="true" width="25.21875"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625"/>
+    <col min="5" max="5" customWidth="true" width="14.5546875"/>
+    <col min="6" max="6" customWidth="true" width="11.21875"/>
+    <col min="7" max="7" customWidth="true" width="10.44140625"/>
+    <col min="8" max="8" customWidth="true" width="27.109375"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125"/>
+    <col min="10" max="10" customWidth="true" width="16.77734375"/>
     <col min="11" max="11" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2784,7 +2808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +2860,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2886,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2888,7 +2912,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2905,13 +2929,13 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I6" t="s">
         <v>186</v>
@@ -2923,31 +2947,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -2968,19 +2992,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.90625"/>
-    <col min="2" max="2" customWidth="true" width="9.81640625"/>
-    <col min="3" max="3" customWidth="true" width="17.1796875"/>
-    <col min="4" max="4" customWidth="true" width="22.81640625"/>
-    <col min="5" max="5" customWidth="true" width="14.90625"/>
+    <col min="1" max="1" customWidth="true" width="5.88671875"/>
+    <col min="2" max="2" customWidth="true" width="9.77734375"/>
+    <col min="3" max="3" customWidth="true" width="17.21875"/>
+    <col min="4" max="4" customWidth="true" width="22.77734375"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3014,7 +3038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3031,7 +3055,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +3089,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3107,16 +3131,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.1796875"/>
-    <col min="2" max="2" customWidth="true" width="12.08984375"/>
-    <col min="3" max="3" customWidth="true" width="22.81640625"/>
-    <col min="4" max="4" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" customWidth="true" width="16.6328125"/>
+    <col min="1" max="1" customWidth="true" width="7.21875"/>
+    <col min="2" max="2" customWidth="true" width="12.109375"/>
+    <col min="3" max="3" customWidth="true" width="22.77734375"/>
+    <col min="4" max="4" customWidth="true" width="25.21875"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3150,7 +3174,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3167,7 +3191,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3184,7 +3208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3243,16 +3267,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.81640625"/>
+    <col min="1" max="1" customWidth="true" width="5.77734375"/>
     <col min="2" max="2" customWidth="true" width="12.0"/>
-    <col min="3" max="3" customWidth="true" width="16.08984375"/>
-    <col min="4" max="4" customWidth="true" width="23.90625"/>
-    <col min="5" max="5" customWidth="true" width="15.54296875"/>
+    <col min="3" max="3" customWidth="true" width="16.109375"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3269,7 +3293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3320,7 +3344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaradhyaVashisht\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359A5C6-CC52-4F2E-848D-C9471FC3501D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2871CA5-08D7-4EF4-9733-1827C32C2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="229">
   <si>
     <t>S. No</t>
   </si>
@@ -667,65 +667,73 @@
     <t>1079</t>
   </si>
   <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>sammie.wintheiser</t>
-  </si>
-  <si>
-    <t>Layla</t>
-  </si>
-  <si>
-    <t>Haley</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/ravi-c-1b35b1124/</t>
   </si>
   <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>McKenzie</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>Wiza</t>
-  </si>
-  <si>
-    <t>Jayna</t>
-  </si>
-  <si>
-    <t>Cronin</t>
-  </si>
-  <si>
-    <t>Heriberto</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>0149</t>
-  </si>
-  <si>
-    <t>Angla</t>
-  </si>
-  <si>
-    <t>O'Kon</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Schmitt</t>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>lesia.kiehn</t>
+  </si>
+  <si>
+    <t>Donnie</t>
+  </si>
+  <si>
+    <t>Legros</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Greenholt</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Tillman</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>reiko.bradtke</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>Harber</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>Leuschke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1112,16 +1120,16 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.21875"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125"/>
-    <col min="4" max="4" customWidth="true" width="62.109375"/>
-    <col min="5" max="5" customWidth="true" width="16.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.21875"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="62.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1603,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1637,7 +1645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1773,7 +1781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>198</v>
       </c>
@@ -1839,22 +1847,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.33203125"/>
-    <col min="2" max="2" customWidth="true" width="10.21875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.21875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.88671875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.33203125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.5546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="1" max="1" width="6.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1911,6 +1919,12 @@
       <c r="E2" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>210</v>
+      </c>
       <c r="H2" t="s">
         <v>73</v>
       </c>
@@ -1926,8 +1940,11 @@
       <c r="L2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1944,10 +1961,10 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
@@ -1965,10 +1982,10 @@
         <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2009,7 +2026,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2025,6 +2042,12 @@
       <c r="E5" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2056,6 +2079,12 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
+        <v>219</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
@@ -2094,19 +2123,19 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.109375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875"/>
-    <col min="8" max="8" customWidth="true" width="23.88671875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.109375"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.90625" customWidth="1"/>
+    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2164,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2174,6 +2203,12 @@
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>224</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>72</v>
       </c>
@@ -2181,7 +2216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2204,7 +2239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2247,10 +2282,10 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>72</v>
@@ -2286,26 +2321,26 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.77734375"/>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="3" max="3" customWidth="true" width="15.6640625"/>
-    <col min="4" max="4" customWidth="true" width="11.77734375"/>
-    <col min="5" max="6" customWidth="true" width="15.21875"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125"/>
-    <col min="8" max="8" customWidth="true" width="10.88671875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="6" width="15.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2388,7 +2423,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2404,12 +2439,17 @@
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
       <c r="H3" t="s">
         <v>144</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
         <v>149</v>
@@ -2427,7 +2467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2466,7 +2506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2505,7 +2545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2522,10 +2562,10 @@
         <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
@@ -2570,18 +2610,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.88671875"/>
-    <col min="3" max="3" customWidth="true" width="19.0"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625"/>
-    <col min="5" max="5" customWidth="true" width="12.77734375"/>
-    <col min="6" max="6" customWidth="true" width="20.88671875"/>
-    <col min="7" max="7" customWidth="true" width="16.77734375"/>
-    <col min="8" max="8" customWidth="true" width="18.5546875"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2647,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2633,7 +2673,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2699,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2685,7 +2725,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2711,7 +2751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2758,22 +2798,22 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.6640625"/>
-    <col min="2" max="2" customWidth="true" width="11.0"/>
-    <col min="3" max="3" customWidth="true" width="25.21875"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625"/>
-    <col min="5" max="5" customWidth="true" width="14.5546875"/>
-    <col min="6" max="6" customWidth="true" width="11.21875"/>
-    <col min="7" max="7" customWidth="true" width="10.44140625"/>
-    <col min="8" max="8" customWidth="true" width="27.109375"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125"/>
-    <col min="10" max="10" customWidth="true" width="16.77734375"/>
-    <col min="11" max="11" customWidth="true" width="16.0"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2808,7 +2848,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2834,7 +2874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2860,7 +2900,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2886,7 +2926,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2912,7 +2952,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2929,13 +2969,13 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
         <v>186</v>
@@ -2947,31 +2987,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -2995,16 +3035,16 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.88671875"/>
-    <col min="2" max="2" customWidth="true" width="9.77734375"/>
-    <col min="3" max="3" customWidth="true" width="17.21875"/>
-    <col min="4" max="4" customWidth="true" width="22.77734375"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3038,7 +3078,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3072,7 +3112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3089,7 +3129,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3131,16 +3171,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.21875"/>
-    <col min="2" max="2" customWidth="true" width="12.109375"/>
-    <col min="3" max="3" customWidth="true" width="22.77734375"/>
-    <col min="4" max="4" customWidth="true" width="25.21875"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +3197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3174,7 +3214,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3208,7 +3248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3225,7 +3265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3264,19 +3304,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.77734375"/>
-    <col min="2" max="2" customWidth="true" width="12.0"/>
-    <col min="3" max="3" customWidth="true" width="16.109375"/>
-    <col min="4" max="4" customWidth="true" width="23.88671875"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3293,7 +3333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3344,7 +3384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="231">
   <si>
     <t>S. No</t>
   </si>
@@ -728,12 +728,19 @@
   </si>
   <si>
     <t>Leuschke</t>
+  </si>
+  <si>
+    <t>Loree</t>
+  </si>
+  <si>
+    <t>Hickle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1122,11 +1129,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.36328125" customWidth="1"/>
-    <col min="4" max="4" width="62.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.1796875"/>
+    <col min="3" max="3" customWidth="true" width="30.36328125"/>
+    <col min="4" max="4" customWidth="true" width="62.08984375"/>
+    <col min="5" max="5" customWidth="true" width="16.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1849,17 +1856,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.36328125"/>
+    <col min="2" max="2" customWidth="true" width="10.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.90625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2081,10 +2088,10 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
@@ -2125,14 +2132,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="8" max="8" customWidth="true" width="23.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2326,18 +2333,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="6" width="15.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="4.81640625"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="3" max="3" customWidth="true" width="15.6328125"/>
+    <col min="4" max="4" customWidth="true" width="11.81640625"/>
+    <col min="5" max="6" customWidth="true" width="15.1796875"/>
+    <col min="7" max="7" customWidth="true" width="13.36328125"/>
+    <col min="8" max="8" customWidth="true" width="10.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.54296875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -2612,13 +2619,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="20.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.90625"/>
+    <col min="3" max="3" customWidth="true" width="19.0"/>
+    <col min="4" max="4" customWidth="true" width="11.6328125"/>
+    <col min="5" max="5" customWidth="true" width="12.81640625"/>
+    <col min="6" max="6" customWidth="true" width="20.90625"/>
+    <col min="7" max="7" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" customWidth="true" width="18.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2800,17 +2807,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="27.08984375" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.6328125"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="25.1796875"/>
+    <col min="4" max="4" customWidth="true" width="10.453125"/>
+    <col min="5" max="5" customWidth="true" width="14.54296875"/>
+    <col min="6" max="6" customWidth="true" width="11.1796875"/>
+    <col min="7" max="7" customWidth="true" width="10.453125"/>
+    <col min="8" max="8" customWidth="true" width="27.08984375"/>
+    <col min="9" max="9" customWidth="true" width="22.36328125"/>
+    <col min="10" max="10" customWidth="true" width="16.81640625"/>
+    <col min="11" max="11" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -3037,11 +3044,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.90625"/>
+    <col min="2" max="2" customWidth="true" width="9.81640625"/>
+    <col min="3" max="3" customWidth="true" width="17.1796875"/>
+    <col min="4" max="4" customWidth="true" width="22.81640625"/>
+    <col min="5" max="5" customWidth="true" width="14.90625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3173,11 +3180,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.1796875"/>
+    <col min="2" max="2" customWidth="true" width="12.08984375"/>
+    <col min="3" max="3" customWidth="true" width="14.6328125"/>
+    <col min="4" max="4" customWidth="true" width="25.1796875"/>
+    <col min="5" max="5" customWidth="true" width="16.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3309,11 +3316,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.81640625"/>
+    <col min="2" max="2" customWidth="true" width="12.0"/>
+    <col min="3" max="3" customWidth="true" width="16.08984375"/>
+    <col min="4" max="4" customWidth="true" width="23.90625"/>
+    <col min="5" max="5" customWidth="true" width="15.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="233">
   <si>
     <t>S. No</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>Hickle</t>
+  </si>
+  <si>
+    <t>Sarai</t>
+  </si>
+  <si>
+    <t>Reynolds</t>
   </si>
 </sst>
 </file>
@@ -2088,10 +2094,10 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anitha\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaradhyaVashisht\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2871CA5-08D7-4EF4-9733-1827C32C2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91F96F1-188C-4CD8-99B9-80A68642F2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" firstSheet="2" activeTab="3" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="722" firstSheet="2" activeTab="7" xr2:uid="{32503197-61E5-4F9B-BD8F-CDA378A0F384}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="230">
   <si>
     <t>S. No</t>
   </si>
@@ -697,12 +697,6 @@
     <t>Hills</t>
   </si>
   <si>
-    <t>Gregory</t>
-  </si>
-  <si>
-    <t>Greenholt</t>
-  </si>
-  <si>
     <t>Dalton</t>
   </si>
   <si>
@@ -730,23 +724,19 @@
     <t>Leuschke</t>
   </si>
   <si>
-    <t>Loree</t>
-  </si>
-  <si>
-    <t>Hickle</t>
-  </si>
-  <si>
-    <t>Sarai</t>
-  </si>
-  <si>
-    <t>Reynolds</t>
+    <t>Jarrett</t>
+  </si>
+  <si>
+    <t>Balistreri</t>
+  </si>
+  <si>
+    <t>Order Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1133,16 +1123,16 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.1796875"/>
-    <col min="3" max="3" customWidth="true" width="30.36328125"/>
-    <col min="4" max="4" customWidth="true" width="62.08984375"/>
-    <col min="5" max="5" customWidth="true" width="16.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1233,7 +1223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1291,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1318,7 +1308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1335,7 +1325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1461,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1488,7 +1478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1505,7 +1495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1658,7 +1648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1665,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1692,7 +1682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1760,7 +1750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1777,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1794,7 +1784,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1811,7 +1801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1828,7 +1818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>198</v>
       </c>
@@ -1860,22 +1850,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.36328125"/>
-    <col min="2" max="2" customWidth="true" width="10.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.1796875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.90625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.36328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1957,7 +1947,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1974,10 +1964,10 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
@@ -1995,10 +1985,10 @@
         <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2039,7 +2029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2067,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2094,10 +2084,10 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
         <v>77</v>
@@ -2136,19 +2126,19 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="8" max="8" customWidth="true" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.08984375"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2217,10 +2207,10 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>72</v>
@@ -2229,7 +2219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2278,7 +2268,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2333,27 +2323,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC94E3-296F-4311-83A2-9D6323C2EB33}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.81640625"/>
-    <col min="2" max="2" customWidth="true" width="10.0"/>
-    <col min="3" max="3" customWidth="true" width="15.6328125"/>
-    <col min="4" max="4" customWidth="true" width="11.81640625"/>
-    <col min="5" max="6" customWidth="true" width="15.1796875"/>
-    <col min="7" max="7" customWidth="true" width="13.36328125"/>
-    <col min="8" max="8" customWidth="true" width="10.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.54296875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6328125"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2426,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2453,10 +2443,10 @@
         <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H3" t="s">
         <v>144</v>
@@ -2480,7 +2470,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2509,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2558,7 +2548,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2575,10 +2565,10 @@
         <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
@@ -2623,18 +2613,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="10.90625"/>
-    <col min="3" max="3" customWidth="true" width="19.0"/>
-    <col min="4" max="4" customWidth="true" width="11.6328125"/>
-    <col min="5" max="5" customWidth="true" width="12.81640625"/>
-    <col min="6" max="6" customWidth="true" width="20.90625"/>
-    <col min="7" max="7" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" customWidth="true" width="18.54296875"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2650,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2676,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2712,7 +2702,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2728,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2764,7 +2754,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2811,22 +2801,22 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="6.6328125"/>
-    <col min="2" max="2" customWidth="true" width="11.0"/>
-    <col min="3" max="3" customWidth="true" width="25.1796875"/>
-    <col min="4" max="4" customWidth="true" width="10.453125"/>
-    <col min="5" max="5" customWidth="true" width="14.54296875"/>
-    <col min="6" max="6" customWidth="true" width="11.1796875"/>
-    <col min="7" max="7" customWidth="true" width="10.453125"/>
-    <col min="8" max="8" customWidth="true" width="27.08984375"/>
-    <col min="9" max="9" customWidth="true" width="22.36328125"/>
-    <col min="10" max="10" customWidth="true" width="16.81640625"/>
-    <col min="11" max="11" customWidth="true" width="16.0"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2887,7 +2877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2903,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2939,7 +2929,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +2955,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3000,31 +2990,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -3042,22 +3032,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1433F4D-AA94-4C23-B8F4-C641A3F219D9}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F1" sqref="F1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.90625"/>
-    <col min="2" max="2" customWidth="true" width="9.81640625"/>
-    <col min="3" max="3" customWidth="true" width="17.1796875"/>
-    <col min="4" max="4" customWidth="true" width="22.81640625"/>
-    <col min="5" max="5" customWidth="true" width="14.90625"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3073,8 +3064,11 @@
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3091,7 +3085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3142,7 +3136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3178,22 +3172,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32D993-D624-4A5F-A345-C2B190736A2C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.1796875"/>
-    <col min="2" max="2" customWidth="true" width="12.08984375"/>
-    <col min="3" max="3" customWidth="true" width="14.6328125"/>
-    <col min="4" max="4" customWidth="true" width="25.1796875"/>
-    <col min="5" max="5" customWidth="true" width="16.6328125"/>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3209,8 +3204,11 @@
       <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +3225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3320,16 +3318,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.81640625"/>
-    <col min="2" max="2" customWidth="true" width="12.0"/>
-    <col min="3" max="3" customWidth="true" width="16.08984375"/>
-    <col min="4" max="4" customWidth="true" width="23.90625"/>
-    <col min="5" max="5" customWidth="true" width="15.54296875"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -3363,7 +3361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AaradhyaVashisht\IdeaProjects\AutomationCatalogue\src\main\resources\"/>
     </mc:Choice>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="231">
   <si>
     <t>S. No</t>
   </si>
@@ -731,12 +731,16 @@
   </si>
   <si>
     <t>Order Number</t>
+  </si>
+  <si>
+    <t>Order number: 1270781</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,11 +1129,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.21875"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125"/>
+    <col min="4" max="4" customWidth="true" width="62.109375"/>
+    <col min="5" max="5" customWidth="true" width="16.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1852,17 +1856,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.33203125"/>
+    <col min="2" max="2" customWidth="true" width="10.21875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.21875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.88671875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.33203125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2128,14 +2132,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.33203125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.77734375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5546875"/>
+    <col min="8" max="8" customWidth="true" width="23.88671875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2329,18 +2333,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375"/>
+    <col min="2" max="2" customWidth="true" width="10.0"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625"/>
+    <col min="4" max="4" customWidth="true" width="11.77734375"/>
+    <col min="5" max="6" customWidth="true" width="15.21875"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125"/>
+    <col min="8" max="8" customWidth="true" width="10.88671875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.0"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.6640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2615,13 +2619,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="10.88671875"/>
+    <col min="3" max="3" customWidth="true" width="19.0"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625"/>
+    <col min="5" max="5" customWidth="true" width="12.77734375"/>
+    <col min="6" max="6" customWidth="true" width="20.88671875"/>
+    <col min="7" max="7" customWidth="true" width="16.77734375"/>
+    <col min="8" max="8" customWidth="true" width="18.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2803,17 +2807,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="25.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.6640625"/>
+    <col min="2" max="2" customWidth="true" width="11.0"/>
+    <col min="3" max="3" customWidth="true" width="25.21875"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625"/>
+    <col min="5" max="5" customWidth="true" width="14.5546875"/>
+    <col min="6" max="6" customWidth="true" width="11.21875"/>
+    <col min="7" max="7" customWidth="true" width="10.44140625"/>
+    <col min="8" max="8" customWidth="true" width="27.109375"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125"/>
+    <col min="10" max="10" customWidth="true" width="16.77734375"/>
+    <col min="11" max="11" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3040,12 +3044,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.88671875"/>
+    <col min="2" max="2" customWidth="true" width="9.77734375"/>
+    <col min="3" max="3" customWidth="true" width="17.21875"/>
+    <col min="4" max="4" customWidth="true" width="22.77734375"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,6 +3155,9 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3180,12 +3187,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.21875"/>
+    <col min="2" max="2" customWidth="true" width="12.109375"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625"/>
+    <col min="4" max="4" customWidth="true" width="25.21875"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,11 +3327,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="5.77734375"/>
+    <col min="2" max="2" customWidth="true" width="12.0"/>
+    <col min="3" max="3" customWidth="true" width="16.109375"/>
+    <col min="4" max="4" customWidth="true" width="23.88671875"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
